--- a/文档信息/格式化文档信息.xlsx
+++ b/文档信息/格式化文档信息.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alfie/Documents/Code/Pre Research/SHRequestFileManage/文档信息/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haosun/Desktop/SHRequestFileManage/文档信息/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="107">
   <si>
     <t>NSString</t>
   </si>
@@ -80,9 +77,6 @@
       <t>qing'qiu'fang'shi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/saleCustomer/saveSaleCustomerData</t>
   </si>
   <si>
     <t>custormerId</t>
@@ -314,9 +308,6 @@
     <t>精耕内容</t>
   </si>
   <si>
-    <t>/saleCustomer/saveSaleCustomerNotSeeRoomInfo</t>
-  </si>
-  <si>
     <t>/saleCustomer/getSaleCustomerQuintessenceInfoList</t>
   </si>
   <si>
@@ -436,9 +427,6 @@
     <t>操作用户</t>
   </si>
   <si>
-    <t>/saleCustomer/saveSaleCustomerEvaluateData</t>
-  </si>
-  <si>
     <t>customerId</t>
   </si>
   <si>
@@ -459,10 +447,6 @@
     <t>新增客源页初始化数据</t>
   </si>
   <si>
-    <t>/saleCustomer/saveSaleCustomerData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存新增客源</t>
   </si>
   <si>
@@ -489,10 +473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/saleCustomer/saveSaleCustomerNotSeeRoomInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存未看房精耕信息</t>
   </si>
   <si>
@@ -512,10 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/saleCustomer/saveSaleCustomerSeeRoomInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存已看房精耕信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,15 +504,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/saleCustomer/saveSaleCustomerEvaluateData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>保存口碑评价</t>
   </si>
   <si>
     <t>保存口碑评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/saleCustomer/mySaleCustomerData</t>
+  </si>
+  <si>
+    <t>/saleCustomer/mySaleCustomerNotSeeRoomInfo</t>
+  </si>
+  <si>
+    <t>/saleCustomer/mySaleCustomerSeeRoomInfo</t>
+  </si>
+  <si>
+    <t>/saleCustomer/mySaleCustomerEvaluateData</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1040,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1085,12 +1069,12 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16"/>
       <c r="D2" s="23"/>
@@ -1098,378 +1082,378 @@
         <v>1</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>0</v>
@@ -1478,18 +1462,18 @@
         <v>1</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>2</v>
@@ -1498,18 +1482,18 @@
         <v>1</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>2</v>
@@ -1518,18 +1502,18 @@
         <v>1</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>0</v>
@@ -1538,18 +1522,18 @@
         <v>1</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>0</v>
@@ -1558,18 +1542,18 @@
         <v>1</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>0</v>
@@ -1578,18 +1562,18 @@
         <v>1</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>0</v>
@@ -1598,18 +1582,18 @@
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="25" t="s">
         <v>0</v>
@@ -1618,18 +1602,18 @@
         <v>1</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>0</v>
@@ -1638,18 +1622,18 @@
         <v>1</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>0</v>
@@ -1658,12 +1642,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="8"/>
@@ -1672,78 +1656,78 @@
         <v>1</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35" s="25" t="s">
         <v>0</v>
@@ -1752,18 +1736,18 @@
         <v>1</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>0</v>
@@ -1772,18 +1756,18 @@
         <v>1</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>0</v>
@@ -1792,18 +1776,18 @@
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>0</v>
@@ -1812,187 +1796,187 @@
         <v>1</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>68</v>
-      </c>
       <c r="C40" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>0</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="D47" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
